--- a/Datasets/vjcortesa_Risk_Perceptiondataset_250923.xlsx
+++ b/Datasets/vjcortesa_Risk_Perceptiondataset_250923.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,6 +500,16 @@
           <t>Q_Threatcode</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q_Responsibility</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Q_Responsibilitycode</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -633,6 +643,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -766,6 +786,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -899,6 +929,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -1032,6 +1072,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1165,6 +1215,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1298,6 +1358,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1431,6 +1501,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1564,6 +1644,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1697,6 +1787,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1830,6 +1930,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1963,6 +2073,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -2096,6 +2216,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -2229,6 +2359,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2362,6 +2502,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -2495,6 +2645,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2628,6 +2788,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -2761,6 +2931,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -2894,6 +3074,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -3027,6 +3217,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -3160,6 +3360,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -3293,6 +3503,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -3426,6 +3646,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -3559,6 +3789,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -3692,6 +3932,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -3825,6 +4075,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -3958,6 +4218,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -4109,6 +4379,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -4242,6 +4522,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -4375,6 +4665,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -4508,6 +4808,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -4641,6 +4951,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -4764,6 +5084,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -4897,6 +5227,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -5030,6 +5370,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -5163,6 +5513,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -5296,6 +5656,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -5429,6 +5799,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -5562,6 +5942,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -5695,6 +6085,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -5828,6 +6228,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -5961,6 +6371,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -6094,6 +6514,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -6227,6 +6657,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -6360,6 +6800,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -6493,6 +6943,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -6626,6 +7086,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -6759,6 +7229,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -6892,6 +7372,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -7025,6 +7515,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -7158,6 +7658,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -7289,6 +7799,16 @@
       <c r="AA53" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
